--- a/reports/20231019-provisioned-single-DB/PerfTestAnalysis.xlsx
+++ b/reports/20231019-provisioned-single-DB/PerfTestAnalysis.xlsx
@@ -5,21 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roncewind/senzing.git/aws-cloudformation-performance-testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roncewind/senzing.git/aws-cloudformation-performance-testing/reports/20231019-provisioned-single-DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EED2F4F-A395-DB42-A961-F90DD6EF61C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEEE122-028D-5C4D-B8A5-179C8BD0EC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="500" windowWidth="34120" windowHeight="19700" xr2:uid="{83921CF5-0249-C341-948E-004987EBA171}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$38:$B$45</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$38:$C$45</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="32">
   <si>
     <t>3 node DB</t>
   </si>
@@ -122,13 +118,28 @@
   <si>
     <t>Total cost</t>
   </si>
+  <si>
+    <t>X86 vCPU</t>
+  </si>
+  <si>
+    <t>X86 GB</t>
+  </si>
+  <si>
+    <t>ARM vCPU</t>
+  </si>
+  <si>
+    <t>ARM GB</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -161,7 +172,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1162,6 +1173,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B08A-AB4A-9B5B-7A7240484AF1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1207,6 +1223,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-B08A-AB4A-9B5B-7A7240484AF1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2890,7 +2911,7 @@
                   <c:v>57.907200000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.952</c:v>
+                  <c:v>17.856000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3579,34 +3600,34 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13.554472075199998</c:v>
+                  <c:v>43.156663200000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.269134206</c:v>
+                  <c:v>31.265135999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.327216819199998</c:v>
+                  <c:v>32.881267200000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0928844209999991</c:v>
+                  <c:v>23.171175999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.8162347370000003</c:v>
+                  <c:v>31.254329500000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.428300388999999</c:v>
+                  <c:v>26.574183999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.069407347599999</c:v>
+                  <c:v>32.060416600000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.794612407999999</c:v>
+                  <c:v>34.369427999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.351035727999999</c:v>
+                  <c:v>36.141048000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.092982555000001</c:v>
+                  <c:v>48.055192500000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3992,32 +4013,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4031,12 +4029,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="0"/>
+            <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -4051,17 +4049,17 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-A839-1A48-9441-ED380B9F1DCA}"/>
+                <c16:uniqueId val="{00000010-D9C9-D748-B78C-323EDB2ED07D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="2"/>
+            <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -4076,17 +4074,17 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-A839-1A48-9441-ED380B9F1DCA}"/>
+                <c16:uniqueId val="{0000000F-D9C9-D748-B78C-323EDB2ED07D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="4"/>
+            <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -4101,57 +4099,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-A839-1A48-9441-ED380B9F1DCA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-A839-1A48-9441-ED380B9F1DCA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-A839-1A48-9441-ED380B9F1DCA}"/>
+                <c16:uniqueId val="{0000000E-D9C9-D748-B78C-323EDB2ED07D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4307,34 +4255,34 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>27.548712075199997</c:v>
+                  <c:v>57.150903200000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.342034206000001</c:v>
+                  <c:v>43.338036000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.699376819199998</c:v>
+                  <c:v>50.253427200000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.045434420999996</c:v>
+                  <c:v>39.123725999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.309034736999998</c:v>
+                  <c:v>48.7471295</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.318110388999997</c:v>
+                  <c:v>46.463994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.146527347599999</c:v>
+                  <c:v>54.137536600000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.748212408000001</c:v>
+                  <c:v>63.323027999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>69.258235728000002</c:v>
+                  <c:v>94.048248000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.044982555000001</c:v>
+                  <c:v>65.911192500000013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8387,10 +8335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BE6118-A1AB-0244-8A25-CA7A07813C69}">
-  <dimension ref="B7:M223"/>
+  <dimension ref="B4:M223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="D233" sqref="D233"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="C236" sqref="C236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8400,7 +8348,34 @@
     <col min="12" max="12" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5">
+        <v>4.0480000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6">
+        <v>4.4450000000000002E-3</v>
+      </c>
+    </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7">
+        <v>3.2379999999999999E-2</v>
+      </c>
       <c r="J7" t="s">
         <v>24</v>
       </c>
@@ -8409,6 +8384,12 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>3.5599999999999998E-3</v>
+      </c>
       <c r="J8" t="s">
         <v>25</v>
       </c>
@@ -8489,12 +8470,12 @@
         <v>23</v>
       </c>
       <c r="L12">
-        <f>(($K$7*0.01271378)+($K$8*0.00139607))*E12*(J12+K12)</f>
-        <v>13.554472075199998</v>
+        <f>(($K$7*$I$5)+($K$8*$I$6))*E12*(J12+K12)</f>
+        <v>43.156663200000004</v>
       </c>
       <c r="M12">
         <f>L12+I12</f>
-        <v>27.548712075199997</v>
+        <v>57.150903200000002</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -8532,12 +8513,12 @@
         <v>14</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:L24" si="2">(($K$7*0.01271378)+($K$8*0.00139607))*E13*(J13+K13)</f>
-        <v>10.327216819199998</v>
+        <f t="shared" ref="L13:L16" si="2">(($K$7*$I$5)+($K$8*$I$6))*E13*(J13+K13)</f>
+        <v>32.881267200000003</v>
       </c>
       <c r="M13">
         <f t="shared" ref="M13:M24" si="3">L13+I13</f>
-        <v>27.699376819199998</v>
+        <v>50.253427200000004</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
@@ -8576,11 +8557,11 @@
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>9.8162347370000003</v>
+        <v>31.254329500000001</v>
       </c>
       <c r="M14">
         <f t="shared" si="3"/>
-        <v>27.309034736999998</v>
+        <v>48.7471295</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
@@ -8619,11 +8600,11 @@
       </c>
       <c r="L15">
         <f t="shared" si="2"/>
-        <v>10.069407347599999</v>
+        <v>32.060416600000003</v>
       </c>
       <c r="M15">
         <f t="shared" si="3"/>
-        <v>32.146527347599999</v>
+        <v>54.137536600000004</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
@@ -8662,11 +8643,11 @@
       </c>
       <c r="L16">
         <f t="shared" si="2"/>
-        <v>10.794612407999999</v>
+        <v>34.369427999999999</v>
       </c>
       <c r="M16">
         <f t="shared" si="3"/>
-        <v>39.748212408000001</v>
+        <v>63.323027999999994</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
@@ -8704,12 +8685,12 @@
         <v>25</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
-        <v>12.269134206</v>
+        <f>(($K$7*$I$7)+($K$8*$I$8))*E17*(J17+K17)</f>
+        <v>31.265135999999998</v>
       </c>
       <c r="M17">
         <f t="shared" si="3"/>
-        <v>24.342034206000001</v>
+        <v>43.338036000000002</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
@@ -8747,12 +8728,12 @@
         <v>13</v>
       </c>
       <c r="L18">
-        <f t="shared" si="2"/>
-        <v>9.0928844209999991</v>
+        <f t="shared" ref="L18:L19" si="5">(($K$7*$I$7)+($K$8*$I$8))*E18*(J18+K18)</f>
+        <v>23.171175999999999</v>
       </c>
       <c r="M18">
         <f t="shared" si="3"/>
-        <v>25.045434420999996</v>
+        <v>39.123725999999998</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
@@ -8790,12 +8771,12 @@
         <v>13</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
-        <v>10.428300388999999</v>
+        <f t="shared" si="5"/>
+        <v>26.574183999999999</v>
       </c>
       <c r="M19">
         <f t="shared" si="3"/>
-        <v>30.318110388999997</v>
+        <v>46.463994</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
@@ -8822,7 +8803,7 @@
         <v>48</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:G24" si="5">F23*60</f>
+        <f t="shared" ref="G23:G24" si="6">F23*60</f>
         <v>2880</v>
       </c>
       <c r="H23">
@@ -8839,12 +8820,12 @@
         <v>28</v>
       </c>
       <c r="L23">
-        <f t="shared" si="2"/>
-        <v>11.351035727999999</v>
+        <f>(($K$7*$I$5)+($K$8*$I$6))*E23*(J23+K23)</f>
+        <v>36.141048000000005</v>
       </c>
       <c r="M23">
         <f t="shared" si="3"/>
-        <v>69.258235728000002</v>
+        <v>94.048248000000001</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
@@ -8865,15 +8846,15 @@
         <v>93</v>
       </c>
       <c r="G24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5580</v>
       </c>
       <c r="H24">
         <v>0.06</v>
       </c>
       <c r="I24">
-        <f>E24*H24*64</f>
-        <v>5.952</v>
+        <f>E24*H24*64*3</f>
+        <v>17.856000000000002</v>
       </c>
       <c r="J24">
         <v>78</v>
@@ -8882,12 +8863,12 @@
         <v>27</v>
       </c>
       <c r="L24">
-        <f t="shared" si="2"/>
-        <v>15.092982555000001</v>
+        <f>(($K$7*$I$5)+($K$8*$I$6))*E24*(J24+K24)</f>
+        <v>48.055192500000011</v>
       </c>
       <c r="M24">
         <f t="shared" si="3"/>
-        <v>21.044982555000001</v>
+        <v>65.911192500000013</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
@@ -8929,7 +8910,7 @@
         <v>2893</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D47" si="6">(C40-C39)/C40 * 100</f>
+        <f t="shared" ref="D40:D47" si="7">(C40-C39)/C40 * 100</f>
         <v>8.7452471482889731</v>
       </c>
     </row>
@@ -8941,7 +8922,7 @@
         <v>2999</v>
       </c>
       <c r="D41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.5345115038346115</v>
       </c>
     </row>
@@ -8953,7 +8934,7 @@
         <v>3871</v>
       </c>
       <c r="D42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.526478946008783</v>
       </c>
     </row>
@@ -8965,7 +8946,7 @@
         <v>3231</v>
       </c>
       <c r="D43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-19.808108944599194</v>
       </c>
     </row>
@@ -8977,7 +8958,7 @@
         <v>4553</v>
       </c>
       <c r="D44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.035800571052057</v>
       </c>
     </row>
@@ -8989,7 +8970,7 @@
         <v>4662</v>
       </c>
       <c r="D45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.3380523380523379</v>
       </c>
     </row>
@@ -9001,7 +8982,7 @@
         <v>6962</v>
       </c>
       <c r="D46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33.036483769031889</v>
       </c>
     </row>
@@ -9013,7 +8994,7 @@
         <v>3579</v>
       </c>
       <c r="D47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-94.523609946912543</v>
       </c>
     </row>
@@ -9033,7 +9014,7 @@
         <v>2893</v>
       </c>
       <c r="D50">
-        <f t="shared" ref="D50:D52" si="7">(C50-C49)/C50 * 100</f>
+        <f t="shared" ref="D50:D52" si="8">(C50-C49)/C50 * 100</f>
         <v>17.283097131005874</v>
       </c>
     </row>
@@ -9045,7 +9026,7 @@
         <v>3871</v>
       </c>
       <c r="D51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25.264789460087833</v>
       </c>
     </row>
@@ -9057,7 +9038,7 @@
         <v>4553</v>
       </c>
       <c r="D52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14.979134636503405</v>
       </c>
     </row>
@@ -9069,7 +9050,7 @@
         <v>4662</v>
       </c>
       <c r="D53">
-        <f t="shared" ref="D53" si="8">(C53-C52)/C53 * 100</f>
+        <f t="shared" ref="D53" si="9">(C53-C52)/C53 * 100</f>
         <v>2.3380523380523379</v>
       </c>
     </row>
@@ -9089,7 +9070,7 @@
         <v>2999</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:D58" si="9">(C57-C56)/C57 * 100</f>
+        <f t="shared" ref="D57:D58" si="10">(C57-C56)/C57 * 100</f>
         <v>11.970656885628543</v>
       </c>
     </row>
@@ -9101,7 +9082,7 @@
         <v>3231</v>
       </c>
       <c r="D58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.1804394924172081</v>
       </c>
     </row>
@@ -9366,7 +9347,8 @@
         <v>17</v>
       </c>
       <c r="C151" s="1">
-        <v>5.952</v>
+        <f>5.952*3</f>
+        <v>17.856000000000002</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.2">
@@ -9382,7 +9364,7 @@
         <v>5</v>
       </c>
       <c r="C177" s="1">
-        <v>13.554472075199998</v>
+        <v>43.156663200000004</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.2">
@@ -9390,7 +9372,7 @@
         <v>10</v>
       </c>
       <c r="C178" s="1">
-        <v>12.269134206</v>
+        <v>31.265135999999998</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.2">
@@ -9398,7 +9380,7 @@
         <v>6</v>
       </c>
       <c r="C179" s="1">
-        <v>10.327216819199998</v>
+        <v>32.881267200000003</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.2">
@@ -9406,7 +9388,7 @@
         <v>11</v>
       </c>
       <c r="C180" s="1">
-        <v>9.0928844209999991</v>
+        <v>23.171175999999999</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.2">
@@ -9414,7 +9396,7 @@
         <v>7</v>
       </c>
       <c r="C181" s="1">
-        <v>9.8162347370000003</v>
+        <v>31.254329500000001</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.2">
@@ -9422,7 +9404,7 @@
         <v>12</v>
       </c>
       <c r="C182" s="1">
-        <v>10.428300388999999</v>
+        <v>26.574183999999999</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.2">
@@ -9430,7 +9412,7 @@
         <v>8</v>
       </c>
       <c r="C183" s="1">
-        <v>10.069407347599999</v>
+        <v>32.060416600000003</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.2">
@@ -9438,7 +9420,7 @@
         <v>9</v>
       </c>
       <c r="C184" s="1">
-        <v>10.794612407999999</v>
+        <v>34.369427999999999</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.2">
@@ -9446,7 +9428,7 @@
         <v>18</v>
       </c>
       <c r="C185" s="1">
-        <v>11.351035727999999</v>
+        <v>36.141048000000005</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.2">
@@ -9454,7 +9436,7 @@
         <v>17</v>
       </c>
       <c r="C186" s="1">
-        <v>15.092982555000001</v>
+        <v>48.055192500000011</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.2">
@@ -9470,7 +9452,7 @@
         <v>5</v>
       </c>
       <c r="C214" s="1">
-        <v>27.548712075199997</v>
+        <v>57.150903200000002</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.2">
@@ -9478,7 +9460,7 @@
         <v>10</v>
       </c>
       <c r="C215" s="1">
-        <v>24.342034206000001</v>
+        <v>43.338036000000002</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.2">
@@ -9486,7 +9468,7 @@
         <v>6</v>
       </c>
       <c r="C216" s="1">
-        <v>27.699376819199998</v>
+        <v>50.253427200000004</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.2">
@@ -9494,7 +9476,7 @@
         <v>11</v>
       </c>
       <c r="C217" s="1">
-        <v>25.045434420999996</v>
+        <v>39.123725999999998</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.2">
@@ -9502,7 +9484,7 @@
         <v>7</v>
       </c>
       <c r="C218" s="1">
-        <v>27.309034736999998</v>
+        <v>48.7471295</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.2">
@@ -9510,7 +9492,7 @@
         <v>12</v>
       </c>
       <c r="C219" s="1">
-        <v>30.318110388999997</v>
+        <v>46.463994</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.2">
@@ -9518,7 +9500,7 @@
         <v>8</v>
       </c>
       <c r="C220" s="1">
-        <v>32.146527347599999</v>
+        <v>54.137536600000004</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.2">
@@ -9526,7 +9508,7 @@
         <v>9</v>
       </c>
       <c r="C221" s="1">
-        <v>39.748212408000001</v>
+        <v>63.323027999999994</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.2">
@@ -9534,7 +9516,7 @@
         <v>18</v>
       </c>
       <c r="C222" s="1">
-        <v>69.258235728000002</v>
+        <v>94.048248000000001</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.2">
@@ -9542,7 +9524,7 @@
         <v>17</v>
       </c>
       <c r="C223" s="1">
-        <v>21.044982555000001</v>
+        <v>65.911192500000013</v>
       </c>
     </row>
   </sheetData>
